--- a/upload/excel/图书信息表（模板）.xlsx
+++ b/upload/excel/图书信息表（模板）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/phpstudy/WWW/Books_Manager/upload/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADB6204-A62C-574E-A71A-B47E6833014F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE025C9-32AE-7445-91AA-560F9A8A2F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>编号</t>
   </si>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">46	</t>
   </si>
   <si>
-    <t>../upload/bookCover/sampling.webp</t>
-  </si>
-  <si>
     <t xml:space="preserve">宝藏奶奶的人生36条感悟，正面解读工作、家庭、人际关系、孤独、死亡等人生课题，给人直面生活的勇气，愿每个人都能从人间失格直至人间值得！罗丹、三毛、史铁生坚信的生活理念。愿你遍历山河，仍觉人间值得！	</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t xml:space="preserve">978-7-03-020426-9	</t>
   </si>
   <si>
-    <t xml:space="preserve">发飙的蜗牛	</t>
-  </si>
-  <si>
     <t xml:space="preserve">综合性图书	</t>
   </si>
   <si>
@@ -191,46 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve">中小型书库_图书馆102	</t>
-  </si>
-  <si>
-    <t>《人间值得》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《万古江河：中国历史文化的转折与开展》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《八千里路云和月》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《茶花女》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《妖神记》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《成龙历险记》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《自传》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《黄鹤楼》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《紫川》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>《神雕侠侣》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>金庸</t>
@@ -292,6 +246,7 @@
         <b/>
         <sz val="18"/>
         <rFont val="方正小标宋简体"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -303,7 +258,43 @@
 添加规则：如果添加图书与库里同名且出版社也相同则会被忽略，反之同一本书不同出版社可入库。</t>
   </si>
   <si>
-    <t>../upload/bookCover/book-default.gif</t>
+    <t>新月集</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶花女</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>八千里路云和月</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万古江河：中国历史文化的转折与开展</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>人间值得</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>离骚</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗经</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>论语</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>落日余晖</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -327,30 +318,35 @@
       <b/>
       <sz val="16"/>
       <name val="方正小标宋简体"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="方正小标宋简体"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="仿宋_GB2312"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -785,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -829,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>7</v>
@@ -838,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
@@ -848,8 +844,8 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>57</v>
+      <c r="C2" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
@@ -863,14 +859,12 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -879,31 +873,29 @@
         <v>10002</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -912,31 +904,29 @@
         <v>10003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -945,31 +935,29 @@
         <v>10004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -978,31 +966,29 @@
         <v>10005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="J6" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="K6" s="8"/>
     </row>
@@ -1011,31 +997,29 @@
         <v>10006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="J7" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -1044,31 +1028,29 @@
         <v>10007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="J8" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -1077,31 +1059,29 @@
         <v>10008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="8"/>
     </row>
@@ -1110,29 +1090,29 @@
         <v>10009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G10" s="14">
         <v>21</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -1141,29 +1121,29 @@
         <v>10010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>74</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="8"/>
     </row>
